--- a/Modelagens/SPMG-Fisico.xlsx
+++ b/Modelagens/SPMG-Fisico.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Thiago Henrique\SPMG\Modelagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Desktop\SENAI\SPMedicalGroups-ThiagoHenrique\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE852AB6-CD13-45CE-ABD8-3EF7B7BBB0F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C1C39A-1236-4D45-9522-92D16D29DDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{C0A495E8-6710-4E49-BEE9-9C86A9C37989}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" firstSheet="1" activeTab="5" xr2:uid="{C0A495E8-6710-4E49-BEE9-9C86A9C37989}"/>
   </bookViews>
   <sheets>
-    <sheet name="consulta" sheetId="12" r:id="rId1"/>
-    <sheet name="situacao" sheetId="11" r:id="rId2"/>
-    <sheet name="medico" sheetId="10" r:id="rId3"/>
+    <sheet name="clinica" sheetId="5" r:id="rId1"/>
+    <sheet name="tipoPermissao" sheetId="6" r:id="rId2"/>
+    <sheet name="usuario" sheetId="7" r:id="rId3"/>
     <sheet name="especialidade" sheetId="9" r:id="rId4"/>
-    <sheet name="paciente" sheetId="8" r:id="rId5"/>
-    <sheet name="clinica" sheetId="5" r:id="rId6"/>
-    <sheet name="tipoPermissao" sheetId="6" r:id="rId7"/>
-    <sheet name="usuario" sheetId="7" r:id="rId8"/>
+    <sheet name="medico" sheetId="10" r:id="rId5"/>
+    <sheet name="paciente" sheetId="8" r:id="rId6"/>
+    <sheet name="situacao" sheetId="11" r:id="rId7"/>
+    <sheet name="consulta" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
   <si>
     <t>Clinica Possarle</t>
   </si>
@@ -281,6 +281,81 @@
   </si>
   <si>
     <t>Agendada</t>
+  </si>
+  <si>
+    <t>nomeClinica</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t>razaoSocial</t>
+  </si>
+  <si>
+    <t>endereco</t>
+  </si>
+  <si>
+    <t>horaAbertura</t>
+  </si>
+  <si>
+    <t>horaFechamento</t>
+  </si>
+  <si>
+    <t>nomeTipoPermissao</t>
+  </si>
+  <si>
+    <t>idTipoUsuario</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>nomeEspecialidade</t>
+  </si>
+  <si>
+    <t>idEspecialidade</t>
+  </si>
+  <si>
+    <t>idUsuario</t>
+  </si>
+  <si>
+    <t>idClinica</t>
+  </si>
+  <si>
+    <t>crm</t>
+  </si>
+  <si>
+    <t>dataNasc</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>cpf</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>idPaciente</t>
+  </si>
+  <si>
+    <t>idMedico</t>
+  </si>
+  <si>
+    <t>idSituacao</t>
+  </si>
+  <si>
+    <t>dataConsulta</t>
   </si>
 </sst>
 </file>
@@ -372,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -395,11 +470,12 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -714,146 +790,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6CFD79-5AE2-4940-9527-C4C5E983DE8A}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090A4C9E-0317-49F7-917E-60276AD5D0E7}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4">
-        <v>1</v>
-      </c>
-      <c r="D1" s="19">
-        <v>43850.625</v>
-      </c>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="19">
-        <v>43836.416666666664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19">
-        <v>43868.458333333336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19">
-        <v>43137.416666666664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="19">
-        <v>43503.458854166667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3</v>
-      </c>
-      <c r="D6" s="19">
-        <v>43898.625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="20">
-        <v>43899.458854166667</v>
+      <c r="E2" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED10FC8A-9DE3-45EE-96EC-D233C9481D40}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAF33F1-98E8-4CC6-87D3-BDBB42E976FE}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -862,154 +892,305 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96384996-72EF-4C75-BAAF-329B490FFF34}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38359A9-B939-4643-8706-2E6DBF37D462}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>2</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
-        <v>1</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>16</v>
-      </c>
-      <c r="B3" s="7">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>79</v>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{B38B35D6-667F-46A5-8FFE-7AEDDAF35588}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{07B53E56-E02B-47DB-BE4F-2B5C17FF44DD}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{C313BFAC-4615-46B5-BCD7-06DBD32C1651}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{59BF113C-D0F6-4E55-B55E-B567659A026F}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{7BF78007-966F-4CB5-91E4-FC98EE48C0C4}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{9F08FC1A-5A75-4438-8272-5B468E44C724}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{4AB40085-7D2A-4F8F-983F-662F128A499C}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{6F65E8FB-DF1D-4BB3-A38F-912E323A9379}"/>
+    <hyperlink ref="C4" r:id="rId9" xr:uid="{9D240459-C58F-4F5B-B744-65C3E71BA092}"/>
+    <hyperlink ref="C3" r:id="rId10" xr:uid="{C18EE9B7-605A-4F2E-B423-9AA3C8BAFFDB}"/>
+    <hyperlink ref="C2" r:id="rId11" xr:uid="{CE824F13-E8B2-40DD-AAF6-F31BFB6DDC35}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5723CBF-73EE-4D18-A5E3-0B5146095887}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1019,158 +1200,72 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B5084D-E2AC-4EF1-896A-32B1A37A53CE}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96384996-72EF-4C75-BAAF-329B490FFF34}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9">
-        <v>30602</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="10">
-        <v>94839859000</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9">
-        <v>37095</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="10">
-        <v>73556944057</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9">
-        <v>28773</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="10">
-        <v>16839338002</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9">
-        <v>31333</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="10">
-        <v>14332654765</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9">
-        <v>27633</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="10">
-        <v>91305348010</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9">
-        <v>26379</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="10">
-        <v>79799299004</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>10</v>
-      </c>
-      <c r="B7" s="13">
-        <v>43164</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="14">
-        <v>13771913039</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1179,33 +1274,178 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090A4C9E-0317-49F7-917E-60276AD5D0E7}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B5084D-E2AC-4EF1-896A-32B1A37A53CE}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9">
+        <v>30602</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="10">
+        <v>94839859000</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>37095</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="10">
+        <v>73556944057</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9">
+        <v>28773</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10">
+        <v>16839338002</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9">
+        <v>31333</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="10">
+        <v>14332654765</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9">
+        <v>27633</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10">
+        <v>91305348010</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9">
+        <v>26379</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="10">
+        <v>79799299004</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13">
+        <v>43164</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="14">
+        <v>13771913039</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1214,31 +1454,31 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAF33F1-98E8-4CC6-87D3-BDBB42E976FE}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED10FC8A-9DE3-45EE-96EC-D233C9481D40}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1247,188 +1487,157 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38359A9-B939-4643-8706-2E6DBF37D462}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6CFD79-5AE2-4940-9527-C4C5E983DE8A}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="18">
+        <v>43850.625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18">
+        <v>43836.416666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
+        <v>43868.458333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18">
+        <v>43137.416666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>43503.458854166667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18">
+        <v>43898.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="D8" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
+      <c r="E8" s="19">
+        <v>43899.458854166667</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{B38B35D6-667F-46A5-8FFE-7AEDDAF35588}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{07B53E56-E02B-47DB-BE4F-2B5C17FF44DD}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{C313BFAC-4615-46B5-BCD7-06DBD32C1651}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{59BF113C-D0F6-4E55-B55E-B567659A026F}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{7BF78007-966F-4CB5-91E4-FC98EE48C0C4}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{9F08FC1A-5A75-4438-8272-5B468E44C724}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{4AB40085-7D2A-4F8F-983F-662F128A499C}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{6F65E8FB-DF1D-4BB3-A38F-912E323A9379}"/>
-    <hyperlink ref="C3" r:id="rId9" xr:uid="{9D240459-C58F-4F5B-B744-65C3E71BA092}"/>
-    <hyperlink ref="C2" r:id="rId10" xr:uid="{C18EE9B7-605A-4F2E-B423-9AA3C8BAFFDB}"/>
-    <hyperlink ref="C1" r:id="rId11" xr:uid="{CE824F13-E8B2-40DD-AAF6-F31BFB6DDC35}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Modelagens/SPMG-Fisico.xlsx
+++ b/Modelagens/SPMG-Fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Desktop\SENAI\SPMedicalGroups-ThiagoHenrique\Modelagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Thiago Henrique\SPMG\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C1C39A-1236-4D45-9522-92D16D29DDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E216A38A-8F9C-46BD-A8C9-81CCF0C1D273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" firstSheet="1" activeTab="5" xr2:uid="{C0A495E8-6710-4E49-BEE9-9C86A9C37989}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11316" activeTab="7" xr2:uid="{C0A495E8-6710-4E49-BEE9-9C86A9C37989}"/>
   </bookViews>
   <sheets>
     <sheet name="clinica" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
   <si>
     <t>Clinica Possarle</t>
   </si>
@@ -356,13 +356,19 @@
   </si>
   <si>
     <t>dataConsulta</t>
+  </si>
+  <si>
+    <t>idTipoPermissao</t>
+  </si>
+  <si>
+    <t>idConsulta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +401,14 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -447,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -476,6 +490,7 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -791,59 +806,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090A4C9E-0317-49F7-917E-60276AD5D0E7}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="20">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F2" s="21">
+      <c r="G2" s="21">
         <v>0.75</v>
       </c>
     </row>
@@ -854,35 +875,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAF33F1-98E8-4CC6-87D3-BDBB42E976FE}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -893,201 +926,237 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38359A9-B939-4643-8706-2E6DBF37D462}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{B38B35D6-667F-46A5-8FFE-7AEDDAF35588}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{07B53E56-E02B-47DB-BE4F-2B5C17FF44DD}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{C313BFAC-4615-46B5-BCD7-06DBD32C1651}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{59BF113C-D0F6-4E55-B55E-B567659A026F}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{7BF78007-966F-4CB5-91E4-FC98EE48C0C4}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{9F08FC1A-5A75-4438-8272-5B468E44C724}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{4AB40085-7D2A-4F8F-983F-662F128A499C}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{6F65E8FB-DF1D-4BB3-A38F-912E323A9379}"/>
-    <hyperlink ref="C4" r:id="rId9" xr:uid="{9D240459-C58F-4F5B-B744-65C3E71BA092}"/>
-    <hyperlink ref="C3" r:id="rId10" xr:uid="{C18EE9B7-605A-4F2E-B423-9AA3C8BAFFDB}"/>
-    <hyperlink ref="C2" r:id="rId11" xr:uid="{CE824F13-E8B2-40DD-AAF6-F31BFB6DDC35}"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{B38B35D6-667F-46A5-8FFE-7AEDDAF35588}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{07B53E56-E02B-47DB-BE4F-2B5C17FF44DD}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{C313BFAC-4615-46B5-BCD7-06DBD32C1651}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{59BF113C-D0F6-4E55-B55E-B567659A026F}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{7BF78007-966F-4CB5-91E4-FC98EE48C0C4}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{9F08FC1A-5A75-4438-8272-5B468E44C724}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{4AB40085-7D2A-4F8F-983F-662F128A499C}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{6F65E8FB-DF1D-4BB3-A38F-912E323A9379}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{9D240459-C58F-4F5B-B744-65C3E71BA092}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{C18EE9B7-605A-4F2E-B423-9AA3C8BAFFDB}"/>
+    <hyperlink ref="D2" r:id="rId11" xr:uid="{CE824F13-E8B2-40DD-AAF6-F31BFB6DDC35}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1095,102 +1164,158 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5723CBF-73EE-4D18-A5E3-0B5146095887}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1201,70 +1326,82 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96384996-72EF-4C75-BAAF-329B490FFF34}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>2</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
         <v>17</v>
       </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
       <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
         <v>16</v>
       </c>
-      <c r="B4" s="7">
-        <v>3</v>
-      </c>
       <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1275,176 +1412,200 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B5084D-E2AC-4EF1-896A-32B1A37A53CE}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
         <v>4</v>
       </c>
-      <c r="B2" s="9">
+      <c r="C2" s="9">
         <v>30602</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="10">
+      <c r="F2" s="10">
         <v>94839859000</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="9">
+      <c r="C3" s="9">
         <v>37095</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="10">
+      <c r="F3" s="10">
         <v>73556944057</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
+      <c r="C4" s="9">
         <v>28773</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="10">
+      <c r="F4" s="10">
         <v>16839338002</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
+      <c r="C5" s="9">
         <v>31333</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="10">
+      <c r="F5" s="10">
         <v>14332654765</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
         <v>8</v>
       </c>
-      <c r="B6" s="9">
+      <c r="C6" s="9">
         <v>27633</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="10">
+      <c r="F6" s="10">
         <v>91305348010</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
         <v>9</v>
       </c>
-      <c r="B7" s="9">
+      <c r="C7" s="9">
         <v>26379</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="10">
+      <c r="F7" s="10">
         <v>79799299004</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
         <v>10</v>
       </c>
-      <c r="B8" s="13">
+      <c r="C8" s="13">
         <v>43164</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="14">
+      <c r="F8" s="14">
         <v>13771913039</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="G8" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1455,29 +1616,43 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED10FC8A-9DE3-45EE-96EC-D233C9481D40}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1488,58 +1663,66 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6CFD79-5AE2-4940-9527-C4C5E983DE8A}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
-        <v>3</v>
-      </c>
       <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="18">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18">
         <v>43850.625</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1547,92 +1730,110 @@
       <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18">
         <v>43836.416666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="18">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18">
         <v>43868.458333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="18">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
         <v>43137.416666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
       <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18">
         <v>43503.458854166667</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
         <v>7</v>
       </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
       <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="18">
         <v>43898.625</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>1</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
       <c r="D8" s="7">
-        <v>3</v>
-      </c>
-      <c r="E8" s="19">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="19">
         <v>43899.458854166667</v>
       </c>
     </row>

--- a/Modelagens/SPMG-Fisico.xlsx
+++ b/Modelagens/SPMG-Fisico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Thiago Henrique\SPMG\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E216A38A-8F9C-46BD-A8C9-81CCF0C1D273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3696F1-E1B8-4F9F-ACE6-28D763D34484}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11316" activeTab="7" xr2:uid="{C0A495E8-6710-4E49-BEE9-9C86A9C37989}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11316" xr2:uid="{C0A495E8-6710-4E49-BEE9-9C86A9C37989}"/>
   </bookViews>
   <sheets>
     <sheet name="clinica" sheetId="5" r:id="rId1"/>
@@ -808,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090A4C9E-0317-49F7-917E-60276AD5D0E7}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1665,7 +1665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6CFD79-5AE2-4940-9527-C4C5E983DE8A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
